--- a/references/Diccionario_Variables_Musica_Turca.xlsx
+++ b/references/Diccionario_Variables_Musica_Turca.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowei/Documents/MLOps/MNA_Team24/MLOps_Team24/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE092C87-B188-3F46-9794-D2613A4170AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980C60E-3A56-D446-A3FC-C7637D5B0E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51040" yWindow="-1400" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen Visual" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="155">
   <si>
     <t>Variable</t>
   </si>
@@ -513,7 +514,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,8 +527,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB8D0E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -550,23 +557,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Courier New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBB8D0E"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dashed">
+          <color auto="1"/>
+        </left>
+        <right style="dashed">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dashed">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="dashed">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dashed">
+          <color auto="1"/>
+        </left>
+        <right style="dashed">
+          <color auto="1"/>
+        </right>
+        <top style="dashed">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="dashed">
+          <color auto="1"/>
+        </right>
+        <top style="dashed">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="dashed">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="dashed">
+          <color auto="1"/>
+        </left>
+        <right style="dashed">
+          <color auto="1"/>
+        </right>
+        <top style="dashed">
+          <color auto="1"/>
+        </top>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBB8D0E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -576,6 +862,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39201B6F-5DDA-8F44-93A2-D81366D17DCE}" name="Table1" displayName="Table1" ref="A1:C52" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C52" xr:uid="{39201B6F-5DDA-8F44-93A2-D81366D17DCE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0654E503-DA56-484F-92F5-75587C21ED2F}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{35E05F12-B667-BA48-9F99-1321389B1E5C}" name="Nombre legible" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1D93E5F2-DFA9-BD4C-8C4C-65B3D2E6E7F5}" name="Tipo (grupo)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,17 +1165,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="2"/>
@@ -1856,4 +2154,754 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCFDCEE-F0EA-FA46-958D-0E81993B5DBC}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="222" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>